--- a/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Julio.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Chillan_Ingresos Causas Por Materia_2020-Julio.xlsx
@@ -321,7 +321,7 @@
         </is>
       </c>
       <c r="B12" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B64" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
@@ -1047,20 +1047,10 @@
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Violación Con Homicidio O Femicidio Art. 372 Bis.</t>
+          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86">
-      <c t="inlineStr" r="A86">
-        <is>
-          <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
-        </is>
-      </c>
-      <c r="B86" s="65">
         <v>4</v>
       </c>
     </row>
